--- a/biology/Zoologie/Cheval/Cheval.xlsx
+++ b/biology/Zoologie/Cheval/Cheval.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Equus caballus
@@ -515,77 +527,13 @@
           <t>Hippologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'hippologie (du grec ἱππος / hippos, « cheval » et λόγος / lógos, « discours ») étudie le cheval dans sa globalité[1], ce qui comprend le fonctionnement biologique et anatomique, ainsi que le comportement et l'entretien. Le cheval est un mammifère herbivore, membre de la famille des équidés, qui compte aussi l'âne et le zèbre. Il y a controverse quant au statut du cheval domestique, longtemps considéré comme une espèce (Equus caballus) à part entière. Les études plus récentes le voient comme une sous-espèce (Equus ferus caballus) d’Equus ferus.
-Les chevaux peuvent être regroupés et classés en fonction de leur race, leur utilisation, leur taille ou leur couleur de robe. La taille d'un cheval varie énormément d'une race à l'autre. Le plus petit cheval miniature reconnu mesure 44,5 cm pour 26 kg[Note 1] et le plus grand, un cheval de trait, 2,19 m pour 1 500 kg[Note 2],[2]. Le poids et la longévité varient de même, les poneys ayant une longévité généralement supérieure aux chevaux. Celle du cheval domestique s'est allongée grâce aux soins prodigués par l'être humain. Il peut vivre de 25 à plus d'une trentaine d'années, bien qu'il commence à décliner physiquement vers l'âge de quinze ans[3]. Le plus vieux cheval connu, Old Billy, est mort à 62 ans[4].
-Le cheval domestique possède 32 paires de chromosomes[5], contre 33 paires pour le cheval de Przewalski. La séquence complète de son génome a été établie en 2007, quatre ans après celle de l'être humain[6].
-Terminologie
-« Cheval » (/ʃəval/, pluriel « chevaux » /ʃəvo/) est un terme générique qui désigne en premier lieu l'espèce ou sous-espèce domestique[7], ce qui inclut les populations redevenues sauvages comme les mustangs, et le cheval de Przewalski, qui vivait à l'état sauvage jusqu'au XXe siècle, mais qui provient en fait d'une domestication antérieure[8]. Le Tarpan et le Przewalski sont désignés comme des « chevaux »[9]. Une vaste terminologie est utilisée pour désigner les différents types de chevaux. « Jument » est le nom de l'animal adulte femelle[10], la poulinière est une femelle adulte destinée à la reproduction[11]. Une jument est désignée par l'adjectif primipare quand elle est gestante pour la première fois. L'étalon est un adulte mâle reproducteur et reconnu, l'entier un adulte mâle non castré, le hongre un mâle castré. Le poulain et la pouliche sont les jeunes animaux respectivement mâle et femelle de moins de trois ans[12]. L'anglicisme yearling désigne un jeune cheval d'un an[13],[14]. Le poney est un cheval de petite taille, trapu et vigoureux[15],[16].
-Histoire évolutive
-Le cheval est un exemple-phare de la théorie de l'évolution. Les nombreux fossiles retrouvés, dont les plus anciens datent de 60 millions d'années[17] montrent qu'il descend d'un petit mammifère forestier possédant plusieurs doigts, qui s'est ensuite adapté aux plaines et aux steppes en devenant plus grand, et en développant son seul doigt médian comme point d'appui sur les sols durs[18]. L'aboutissement est l’Equus du Pléistocène, toisant environ 1,40 m et se déplaçant sur quatre sabots[19]. Une étude génétique réalisée sur un fragment d'os de cheval vieux d'environ 735 000 ans a permis de dater l'apparition de l'ancêtre commun à tous les Équidés modernes à quatre millions d'années[20].
-Origines du cheval domestique
-L'unique théorie admise (notamment par l'archéologie) a longtemps voulu que les différentes races de chevaux domestiques soient le résultat d'un élevage sélectif opéré par l'être humain à partir d'une souche sauvage unique, probablement le Tarpan. La théorie « des quatre lignées fondatrices » postule au contraire que toutes les races de chevaux modernes descendent de quatre à sept sous-espèces, dont le cheval des forêts, le cheval de trait, le cheval oriental et le Tarpan[21].
-Différentes études réalisées à partir d'analyses génétiques ont remis ces idées en question. Celle de Vilà postule que le cheval domestique descend de plusieurs sous-espèces adaptées à différents biotopes avant la domestication[22], des souches sauvages capturées et domestiquées en différents lieux d'Eurasie[23]. En 2012, le fossé qui perdurait entre l'archéologie et la génétique est en partie comblé. Les premiers chevaux domestiques proviendraient bien de la partie occidentale de la steppe eurasienne (Ukraine, Kazakhstan et Russie) mais les très nombreux repeuplements des troupeaux de chevaux domestiques en juments sauvages ont pu faire croire en l'existence de différents foyers de domestication, tout en multipliant les lignées dans le pool génique du cheval domestique. Le cheval domestique proviendrait donc bien des steppes d'Eurasie à l'origine[24]. Une étude en 2019 met en évidence, en plus des deux lignées de chevaux ayant perduré jusqu’à nos jours — les chevaux domestiques modernes et les chevaux de Przewalski —, deux lignées de chevaux aujourd’hui éteintes (une dans la péninsule Ibérique il y a 4 000 ans et une en Sibérie)[25].
-En 2021, une étude conduite par les paléogénéticiens du CNRS (Centre national de la recherche scientifique) a résolu l'origine des chevaux domestiques. Auparavant, il y avait beaucoup de troupeaux génétiquement distincts, mais entre 2 000 et 2 200 ans avant notre ère, avec la domestication, la situation a totalement changé. Un profil génétique originaire de la steppe pontique (nord du Caucase) a rapidement supplanté les autres. Il se caractérise par une colonne vertébrale plus forte et un comportement plus docile. Cette domestication est liée au développement des langues indo-iraniennes (mais décorrélé de la progression des langues indo-européennes vers l'ouest)[26].
-Anatomie et morphologie
-Le cheval est un animal quadrupède. Une terminologie spécifique s'applique aux différentes parties de son corps, dont des termes habituellement réservés à l'être humain, comme « bouche », « jambe », « nez » et « pied », contrairement à tout autre animal domestique. Sa hauteur se mesure au garrot, sorte de renflement situé à la jonction de l'encolure et du dos[27]. Par convention, le cheval a trois parties externes principales : l'avant-main, qui comprend la tête, l'encolure et les membres antérieurs ; l'arrière-main composée de la croupe, des hanches, des membres postérieurs et de la queue ; et le corps, la partie centrale[28]. Il porte une crinière et une queue dont les poils sont appelés crins[29]. L'étude de sa morphologie permet de décrire et d'apprécier la beauté, les défectuosités et les tares d'un animal du point de vue humain[30].
-L'anatomie du cheval comprend l'étude du squelette, des muscles, des tendons, du système digestif, respiratoire, reproducteur, cardiaque et nerveux. Il possède 469 muscles qui représentent environ la moitié de son poids[29]. Toutes ses particularités anatomiques (incapacité à vomir, possibilité de bloquer ses jambes pour dormir debout en phase de sommeil léger, etc.) résultent de sa niche écologique, celle des grands herbivores dont la fuite rapide est la seule défense[31]. Le pied du cheval est particulièrement important et doit faire l'objet de soins attentifs, justifiant l'expression populaire « pas de pied, pas de cheval »[32].
-Types et races
-Les races issues de l'espèce chevaline sont nombreuses et variées. Cette grande diversité a pour origine leur adaptation à l'environnement (aptitude à jeûner, résistance aux hautes températures ou encore sûreté de pied en terrain montagneux), et surtout l'élevage sélectif puis les croisements opérés par l'humain sur le cheval domestique. Certains traits tels la rapidité, la capacité de portage ou encore celle à tracter de lourdes charges, ont été privilégiés[33]. Les races sont généralement divisées en trois grandes catégories : les chevaux de trait destinés à la traction, les chevaux de selle destinés à être montés (y compris chevaux de sport pour le haut niveau) et les poneys. Les cobs, chevaux à deux fins pouvant être montés aussi bien qu'attelés, sont parfois classés à part[34]. Pour le cheval comme pour bon nombre d'animaux domestiques, des listes d'ancêtres ont été établies et de nombreuses races possèdent un registre généalogique qui peut être fermé (seuls les animaux descendants d'animaux déjà enregistrés peuvent faire partie de la race) ou ouvert (le registre accepte des croisements avec d'autres races). L'inscription d'un cheval à un tel registre est soumise à des règles de signalement et de conformité au standard de race[33]. Ces informations sont reprises par de vastes bases de données spécialisées[Note 3].
-Les races les plus connues incluent le Pur-sang[35], l'Arabe[36], le Frison, le Pure race espagnole et son voisin le Lusitanien, le Quarter Horse, le Percheron, le Fjord[37], le Haflinger et le poney Shetland[38]. La liste des races de chevaux est toutefois riche de plusieurs centaines de races.
-Poneys
-Le poney est un cheval de petite taille, souvent avec une conformation et un tempérament particuliers. Par rapport aux chevaux, ils présentent une crinière plus épaisse, une queue et un pelage plus fournis, ainsi que des jambes proportionnellement plus courtes, un corps plus large et une ossature plus lourde[39], bien que certains poneys puissent ressembler à des chevaux en modèle réduit. La Fédération équestre internationale (FEI) ne prend en compte que la taille pour définir un poney. Selon ses normes, tout cheval de moins d'1,50 m au garrot (ou 1,51 m ferré) est classé « poney », afin de faciliter les compétitions officielles[40].
-Il y a toutefois des exceptions à cette classification, comme le Camargue[41] et l’Islandais[42], dont les éleveurs et utilisateurs refusent le classement comme poney. Le cheval miniature, malgré sa taille de 70 cm en moyenne, possède les caractéristiques extérieures d'un cheval.
-Marronnage
-De nombreux chevaux sont capables de retourner à l'état sauvage et de former des troupeaux. C'est le cas des mustangs aux États-Unis et des brumbies en Australie, qui sont considérés comme invasifs et provoquent des dégâts importants sur la flore et les sols[43]. Seul le cheval de Przewalski est resté totalement sauvage[44].
-Hybrides
-Le cheval peut s'hybrider avec d'autres équidés, mais l'animal hybride est généralement stérile. Le produit d'un entier et d'une ânesse est un « bardot », celui d'un âne et d'une jument est un « mulet » ou une « mule »[45], celui d'une jument et d'un zèbre est nommé « zébrule ».
-Robes et signalisations
-La couleur des poils et des crins du cheval constituent sa robe. Très variées, elles sont un moyen d'identification de chaque animal, aussi font-elles l'objet d'une classification règlementée et d'un vocabulaire précis. Le nom des robes est basé sur la couleur des poils et des crins[46]. Les plus courantes sont le bai, l'alezan et le gris.
-Les épis sont des zones de directions irrégulières des poils, dont le nombre et les localisations sont relevés dans le signalement des chevaux, afin de permettre leur identification. Les chevaux possèdent parfois des marques blanches sur les membres ou sur la tête, dont la taille et la forme peuvent varier. Ce sont des facteurs d'identification, des termes précis existent pour les décrire[47]. La balzane est une marque blanche au bas des jambes, suivant sa taille et sa forme, elle porte un nom différent[48].
-Éthologie et comportement
-Le comportement du cheval fait l'objet de nombreuses études. Animal grégaire, le cheval vit en troupeaux d'une petite dizaine d'individus[49]. Il passe la majeure partie de son temps à se nourrir[50]. Il se rassure par des contacts physiques avec ses congénères, incluant des frottements et des grattages réciproques[51]. Le cheval consacre environ 15 à 16 heures à s’alimenter, 5 à 7 h à se reposer, 1 à 2 h à se déplacer, 1 à 2 h à surveiller son environnement, et moins d'une heure aux autres activités[52].
-Organisation du groupe
-Un troupeau typique se compose d'un étalon (rarement deux), de trois à quatre juments — dont la plus âgée est souvent dominante — et de leurs poulains[53]. Ces derniers sont ensuite chassés par l'étalon vers l’âge de deux ou trois ans, ou partent d'eux-mêmes pour créer leur propre harem et assurer leur descendance[54]. Lorsqu'ils quittent leur troupeau natal, les jeunes chevaux se regroupent par 2 à 15, voire plus[55]. En liberté, l'étalon se constitue un harem et se reproduit uniquement avec les juments de celui-ci. Si un autre étalon veut s'approprier un autre harem ou agrandir le sien, il s'ensuit une bataille entre mâles pour la domination du troupeau, se limitant généralement à des phases d'intimidations et d’investigation olfactive. Ces intimidations dégénèrent parfois en combats pouvant être violents. Ils ne sont qu'exceptionnellement mortels[56],[57]. L'étalon vainqueur récupère le harem du perdant.
-Une hiérarchie de type dominant/dominé est établie, généralement en fonction de l'âge des individus, de leur tempérament, etc. La hiérarchie est souvent pyramidale : A dominant B, qui domine C, qui domine D… Des hiérarchies triangulaires existent aussi : A domine B, B domine C, mais C domine A[58]. Cette hiérarchie se stabilise au bout de quelques mois de vie commune, et n'est en général pas ou peu remise en cause. Au sein du groupe, l'ordre et la hiérarchie se maintiennent par des manœuvres d'intimidation, notamment via un langage corporel très développé. Indépendamment des relations hiérarchiques, le cheval adulte a très souvent des relations privilégiées avec un ou deux autres congénères avec qui il entretient des relations étroites, notamment avec des séances de toilettage mutuel.
-Le cheval déteste la solitude. Son groupe lui permet d'assurer constamment une surveillance face au prédateurs[59]. Les chevaux domestiques entretiennent eux aussi, de solides amitiés avec certains compagnons de pré ou d'écurie.
-Communication
-Le cheval communique généralement par le canal visuel, grâce au langage corporel. L'étude de sa gestuelle, des mouvements d'oreilles et des attitudes de sa tête permet de déterminer son humeur. Il couche ses oreilles en arrière s'il est en colère, et les pointe vers l'avant s'il est attentif[60]. Il emploie le hennissement lorsqu'il ne peut pas voir d'autres chevaux[61], le plus souvent afin de les appeler[62]. Les chevaux recourent au hennissement dès leur plus jeune âge, c'est un moyen pour eux d'exprimer des émotions fortes[63].
-Les contacts entre chevaux peuvent être agressifs (morsure, coup de pied, bousculades) ou bien démontrer une affinité entre congénères, un exemple étant le toilettage mutuel. Le cheval analyse des odeurs en effectuant un flehmen, comportement particulier de flairage permettant l'activation de l'organe voméro-nasal qui a la particularité de détecter les phéromones. La possibilité d'une communication par télépathie est parfois évoquée[64]. Cette communication intuitive permettrait au cheval de ressentir l'état d'esprit de ses congénères et des humains[65]. Cette hypothèse n'est pas reconnue par la communauté scientifique[66].
-Sommeil
-Comme la plupart des grands herbivores, le cheval dort peu, de trois à cinq heures par jour, en raison de sa vulnérabilité aux prédateurs[67]. La croyance bien connue selon laquelle il dort debout provient de sa capacité à bloquer ses jambes pour somnoler dans cette position. Il ne s'agit toutefois que de sommeil léger. Pour ses phases de sommeil profond et de sommeil paradoxal, le cheval doit s'allonger entièrement. Dans cette position, il peut rêver[68].
-Reproduction et développement
-En liberté, le mâle manifeste son activité sexuelle dès l'âge d'un an à dix-huit mois[69], et la jument est apte à pouliner dès deux ans[70]. En captivité, entiers et juments sont rarement autorisés à se reproduire avant l'âge de trois ans. La fécondation s'effectue de plus en plus souvent par insémination artificielle en sperme congelé. Une éjaculation d'un étalon est en moyenne de 70 ml. Cette technique permet aux éleveurs de disposer plus facilement d'un large choix de géniteurs mâles pour leurs poulinières. Pour des raisons économiques, certains éleveurs recherchent une naissance précoce au début de l'année, et parviennent à déclencher des chaleurs chez la jument en jouant par exemple sur l'intensité de l'éclairage[71].
-La durée de gestation est en moyenne de onze mois, soit 330 jours[72]. La jument donne naissance à un poulain à la fois, sauf exception, généralement au printemps. Il peut marcher moins d'une heure après la naissance, et doit téter le colostrum de sa mère avant deux jours[73].
-Un cheval de quatre ans est généralement considéré comme adulte, bien que son squelette continue de se développer jusqu'à huit ans. Sa croissance dépend étroitement de sa taille, sa race, son sexe, et la qualité des soins qui lui sont prodigués. En fonction de la maturité, de la race, et du travail attendu, les chevaux sont d'ordinaire débourrés et montés entre deux et quatre ans. Bien que les Pur-sangs, réputés pour leur précocité, puissent être montés dès deux ans dans certains pays, les chevaux de sport équestre ne le sont pas avant trois ou quatre ans car leurs os et leurs muscles ne sont pas totalement développés. En compétition d'endurance, les chevaux ne sont pas autorisés à concourir avant cinq ans révolus. L'âge où vient la vieillesse n'est qu'une notion subjective, mais elle se situe le plus souvent entre 16 et 20 ans[74]. Il n'existe ni race précoce ni race tardive, tous les chevaux ont la même croissance. Les os de la colonne vertébrale sont les derniers à se solidifier (vers 7-8 ans) c'est pourquoi débourrer trop tôt est dangereux pour le cheval.
-Allures et mouvements
-Naturels
-Les différentes façons dont le cheval se meut sont nommées allures. Tous les chevaux en possèdent naturellement trois. Le pas, la plus lente, est en quatre temps et correspond à une vitesse de 8 ou 9 kilomètres par heure. Le trot, allure intermédiaire et sautée à deux temps, permet habituellement d'atteindre une vitesse de 15 à 18 km/h[75]. Le galop, la plus rapide, est une allure en trois temps, basculée et sautée, permettant d'atteindre une vitesse moyenne de 20 à 25 km/h, jusqu'à 60 km/h chez le Pur-sang[76]. Certains chevaux sont capables d'aller l'amble, allure où les deux membres d'un même côté se déplacent simultanément[77].
-Le cheval saute naturellement les obstacles qui se présentent à lui, et effectue parfois des sauts sur place[78]. Il connaît le cabrer et la ruade, mouvements qui témoignent généralement d'une volonté d'attaque ou de défense de sa part[79].
-Artificiels
-Le dressage permet d'apprendre de nouveaux mouvements au cheval. L'apprentissage du rassembler est souvent nécessaire afin de les obtenir. Le pas espagnol est un pas lent caractérisé par une forte extension des membres antérieurs, le passage, un trot majestueux, et le piaffer, un passage sur place[80]. Le dressage classique inclut aussi des airs relevés travaillés à partir du cabrer et de la ruade, comme la levade, la croupade, la pesade et la cabriole[79].
-Les allures peuvent présenter des irrégularités, telles l'aubin (mélange de trot et de galop) et le traquenard (trot désuni)[81].
-Sens
-Le cheval possède cinq sens, mais l'existence d'un sixième sens lui permettant de prévoir le climat ou un danger est souvent évoquée[82]. Les plus développés sont l'odorat, l'ouïe et le toucher. Sa vision est bichromatique[83], son angle de vue de 340 degrés, mais son acuité visuelle est moyenne à médiocre[84] bien qu'il voie très clair durant la nuit[85]. Son ouïe, très fine[86], lui permet de prévoir les tremblements de terre, de percevoir les ultrasons et de détecter les prédateurs[87].
-Il possède un sens développé de l'odorat lui permettant entre autres de trouver de l'eau et de détecter une femelle en chaleur à 800 m[88], et un organe de Jacobson pour analyser les odeurs pendant le flehmen[89].
-Le cheval est en principe peu attiré par le goût sucré, mais la fréquentation de l'être humain l'y a habitué[90]. Il possède un sens du toucher très développé sur la tête et le dos, et peut faire frémir une partie de son corps afin de chasser les mouches qui s'y posent[91]. Son pied est sensible aux variations de pression. Ses lèvres sont entourées de poils sensibles appelés vibrisses, comparables aux moustaches du chat[92].
-Alimentation et digestion
-Les chevaux sont des herbivores non-ruminants. Ils disposent d’un seul estomac, capable de digérer les fibres végétales qui proviennent de l’herbe et du foin, grâce à une fermentation par micro-organismes. Ce processus se déroule dans la partie du système digestif appelée cæcum, et aboutit à la décomposition de la cellulose, principal composant des fibres végétales[93]. Les chevaux préfèrent manger de petites quantités de nourriture de façon régulière tout au long de la journée[94]. Cela n'est pas toujours compatible avec la vie dans les écuries, ni avec les plannings des humains, qui favorisent le nourrissage deux fois par jour.
-Le système digestif du cheval est délicat. Il est incapable de régurgiter sa nourriture, sauf depuis l’œsophage. Aussi, en cas d’excès de nourriture ou d’empoisonnement, vomir n’est pas possible pour lui[95],[96]. En outre, son côlon est particulièrement long et complexe, l'équilibre de la flore intestinale dans le cæcum peut être facilement bouleversé par des changements rapides d’alimentation. Ces facteurs le rendent sujet à des coliques, qui s’avèrent être la première cause de mortalité chevaline[97]. Ils requièrent une nourriture propre et de grande qualité, fournie à intervalles réguliers, et peuvent tomber malades lorsqu’ils subissent un brusque changement de régime alimentaire[98]. Les chevaux sont également sensibles aux moisissures et aux toxines. Pour cette raison, ils ne doivent jamais être nourris par des matières fermentables contaminées, comme la tonte de gazon[99].
-Tempérament
-Les chevaux étant des mammifères, ils ont toujours le sang chaud biologiquement parlant[100]. Des termes tels que « cheval à sang chaud », « cheval à sang froid » et « proche du sang » sont utilisés pour décrire le tempérament de l'animal[101].
-Le races dites « à sang chaud » sont surtout d'origine orientale et incluent l'Akhal-Teke, le Barbe, l'Arabe, le Turkoman (maintenant éteint) et les Pur-sang développés à partir de ces derniers. Ils sont élevés pour leur agilité et leur vitesse, vifs, ils apprennent rapidement[102]. Physiquement raffinés, leur peau est mince, leur silhouette longiligne, et leurs jambes longues[103]. Ces races ont été importées en Europe depuis le Moyen-Orient et l'Afrique du Nord lorsque les éleveurs souhaitèrent insuffler des qualités de vitesse et de vivacité aux montures de la cavalerie légère[102].
-La plupart des chevaux de trait, puissants et musclés, sont « à sang froid ». Ils sont élevés à l'origine pour leur force, leur calme et leur patience, des qualités nécessaires pour tirer une charrue ou un lourd charriot rempli de passagers. Ils sont parfois surnommés les « doux géants »[104]. Les races les plus connues incluent le trait belge et le Clydesdale. Certains, comme le Percheron, sont un peu plus légers et vifs. D'autres, comme le lent et puissant Shire, sont créés pour labourer les champs aux sols lourds à base d'argile[104]. Les chevaux à sang froid regroupent aussi quelques races de poneys comme le Fjord[21].
-Les demi-sang (ou Warmblood) comme le Selle français, le Hunter irlandais, le Trakehner ou le Hanovrien, sont à l'origine des montures produites pour l'armée et issues du croisement de cheptels locaux à sang froid avec des chevaux à sang chaud, comme l'Arabe ou le Pur-sang, afin d'obtenir un cheval ayant davantage de raffinement que le cheval de trait, mais aussi une plus grande taille et un tempérament plus calme que les chevaux de sang[105]. Certains poneys demi-sang ont été développés par croisement des cheptels locaux avec des chevaux de sang, par exemple le Connemara[106]. Désormais, les termes « demi-sang » et « warmblood » tendent à désigner un type spécifique de races qui dominent les sports équestres olympiques du dressage et du saut d'obstacles depuis les années 1970. Avant cette date, le terme français (demi-sang) désignait tout croisement entre une race dite à sang froid et une race dite à sang chaud. Parfois, ce terme est utilisé pour faire référence à des races de chevaux légers autres que les Pur-sangs[107].
-Intelligence et apprentissage
-Par le passé, les chevaux ont souvent été considérés comme des animaux stupides et incapables d'abstraction, soumis à leur seul instinct grégaire. Depuis le début du XXe siècle, des études (et des faits comme l'affaire Hans le Malin) ont mis en évidence leurs facultés cognitives dans la résolution d'un certain nombre de tâches quotidiennes, incluant la recherche de nourriture et la gestion de l'organisation sociale. Les chevaux sont également doués de bonnes habilités de visualisation spatiale[108]. Ils sont capables de reconnaître les humains qui les côtoient (et de se reconnaître entre eux) à partir du simple son d'une voix ou des traits d'un visage[109].
-Ils font preuve d'intelligence dans la résolution de problèmes, sont doués de facultés d'apprentissage et retiennent les connaissances qu'ils ont acquises. Leurs résultats sont excellents en apprentissage simple, les chevaux sont aussi capables de résoudre des problèmes cognitifs avancés qui impliquent la catégorisation et l'apprentissage de concepts. Ils répondent bien à l'habituation, à la désensibilisation, au conditionnement pavlovien et au conditionnement opérant. Leur renforcement peut être positif comme négatif. Une étude suggère même que les chevaux sont capables de compter jusqu'à quatre[110].
-Les chevaux domestiques tendent à savoir résoudre des problèmes plus complexes que les chevaux sauvages, parce qu'ils vivent dans un environnement artificiel qui inhibe leur comportement instinctif tout en apprenant des tâches non-naturelles[108]. Les chevaux sont, de manière générale, très sensibles aux habitudes. Ils répondent et s'adaptent bien mieux lorsque les mêmes routines et techniques sont utilisées de manière cohérente. Certains formateurs estiment que l'« intelligence » des chevaux est un reflet de celle de leur formateur, qui utilise efficacement les techniques de conditionnement et de renforcement positif pour former chaque animal à la manière qui correspond le mieux à ses inclinations naturelles. D'autres personnes qui travaillent régulièrement avec des chevaux notent que la personnalité peut aussi jouer un rôle pour déterminer comment un animal donné répond à des expériences diverses[111].
-Santé
-À l'état sauvage ou domestique, le cheval peut-être affecté par des parasites et des maladies telles que le tétanos, la grippe équine[112], la rage[113], la gourme, différentes affections respiratoires (emphysème…) et l'anémie infectieuse des équidés[114]. L'une des maladies les plus « classiques » chez le cheval est la fourbure, qui peut avoir différentes causes et se traduit par de vives douleurs au niveau des pieds[115]. La myoglobinurie, ou « maladie du lundi », et le « coup de sang » affectent les chevaux mis au travail dans de mauvaises conditions[116]. Les coliques, des troubles du système digestif, sont particulièrement dangereuses et difficiles à soigner et à prévenir, rendant nécessaire un contrôle strict de l'alimentation du cheval domestique[117]. Les maladies cardiaques, circulatoire, nerveuses, et les « vices d'écurie » n'affectent que les chevaux domestiques dans certaines conditions[118]. Les déformations permanentes du corps du cheval sont appelées des tares[119]. Toute affection de la locomotion est nommée boiterie, les causes possibles en sont nombreuses[120].
-Le cheval craint également certains insectes comme le taon[121].
-Le cheval est sensible à divers parasites, dont ceux du tube digestif, qu'il acquiert en mangeant (strongles, Parascaris equorum…)[114]. D'autres parasites causent la gale et des mycoses. Les tiques peuvent lui transmettre la piroplasmose et divers parasites dont des Borrelia, responsables de la maladie de Lyme[115].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'hippologie (du grec ἱππος / hippos, « cheval » et λόγος / lógos, « discours ») étudie le cheval dans sa globalité, ce qui comprend le fonctionnement biologique et anatomique, ainsi que le comportement et l'entretien. Le cheval est un mammifère herbivore, membre de la famille des équidés, qui compte aussi l'âne et le zèbre. Il y a controverse quant au statut du cheval domestique, longtemps considéré comme une espèce (Equus caballus) à part entière. Les études plus récentes le voient comme une sous-espèce (Equus ferus caballus) d’Equus ferus.
+Les chevaux peuvent être regroupés et classés en fonction de leur race, leur utilisation, leur taille ou leur couleur de robe. La taille d'un cheval varie énormément d'une race à l'autre. Le plus petit cheval miniature reconnu mesure 44,5 cm pour 26 kg[Note 1] et le plus grand, un cheval de trait, 2,19 m pour 1 500 kg[Note 2],. Le poids et la longévité varient de même, les poneys ayant une longévité généralement supérieure aux chevaux. Celle du cheval domestique s'est allongée grâce aux soins prodigués par l'être humain. Il peut vivre de 25 à plus d'une trentaine d'années, bien qu'il commence à décliner physiquement vers l'âge de quinze ans. Le plus vieux cheval connu, Old Billy, est mort à 62 ans.
+Le cheval domestique possède 32 paires de chromosomes, contre 33 paires pour le cheval de Przewalski. La séquence complète de son génome a été établie en 2007, quatre ans après celle de l'être humain.
 </t>
         </is>
       </c>
@@ -611,28 +559,1002 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Hippologie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Terminologie</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">« Cheval » (/ʃəval/, pluriel « chevaux » /ʃəvo/) est un terme générique qui désigne en premier lieu l'espèce ou sous-espèce domestique, ce qui inclut les populations redevenues sauvages comme les mustangs, et le cheval de Przewalski, qui vivait à l'état sauvage jusqu'au XXe siècle, mais qui provient en fait d'une domestication antérieure. Le Tarpan et le Przewalski sont désignés comme des « chevaux ». Une vaste terminologie est utilisée pour désigner les différents types de chevaux. « Jument » est le nom de l'animal adulte femelle, la poulinière est une femelle adulte destinée à la reproduction. Une jument est désignée par l'adjectif primipare quand elle est gestante pour la première fois. L'étalon est un adulte mâle reproducteur et reconnu, l'entier un adulte mâle non castré, le hongre un mâle castré. Le poulain et la pouliche sont les jeunes animaux respectivement mâle et femelle de moins de trois ans. L'anglicisme yearling désigne un jeune cheval d'un an,. Le poney est un cheval de petite taille, trapu et vigoureux,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Cheval</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cheval</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Hippologie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Histoire évolutive</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le cheval est un exemple-phare de la théorie de l'évolution. Les nombreux fossiles retrouvés, dont les plus anciens datent de 60 millions d'années montrent qu'il descend d'un petit mammifère forestier possédant plusieurs doigts, qui s'est ensuite adapté aux plaines et aux steppes en devenant plus grand, et en développant son seul doigt médian comme point d'appui sur les sols durs. L'aboutissement est l’Equus du Pléistocène, toisant environ 1,40 m et se déplaçant sur quatre sabots. Une étude génétique réalisée sur un fragment d'os de cheval vieux d'environ 735 000 ans a permis de dater l'apparition de l'ancêtre commun à tous les Équidés modernes à quatre millions d'années.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Cheval</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cheval</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Hippologie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Origines du cheval domestique</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'unique théorie admise (notamment par l'archéologie) a longtemps voulu que les différentes races de chevaux domestiques soient le résultat d'un élevage sélectif opéré par l'être humain à partir d'une souche sauvage unique, probablement le Tarpan. La théorie « des quatre lignées fondatrices » postule au contraire que toutes les races de chevaux modernes descendent de quatre à sept sous-espèces, dont le cheval des forêts, le cheval de trait, le cheval oriental et le Tarpan.
+Différentes études réalisées à partir d'analyses génétiques ont remis ces idées en question. Celle de Vilà postule que le cheval domestique descend de plusieurs sous-espèces adaptées à différents biotopes avant la domestication, des souches sauvages capturées et domestiquées en différents lieux d'Eurasie. En 2012, le fossé qui perdurait entre l'archéologie et la génétique est en partie comblé. Les premiers chevaux domestiques proviendraient bien de la partie occidentale de la steppe eurasienne (Ukraine, Kazakhstan et Russie) mais les très nombreux repeuplements des troupeaux de chevaux domestiques en juments sauvages ont pu faire croire en l'existence de différents foyers de domestication, tout en multipliant les lignées dans le pool génique du cheval domestique. Le cheval domestique proviendrait donc bien des steppes d'Eurasie à l'origine. Une étude en 2019 met en évidence, en plus des deux lignées de chevaux ayant perduré jusqu’à nos jours — les chevaux domestiques modernes et les chevaux de Przewalski —, deux lignées de chevaux aujourd’hui éteintes (une dans la péninsule Ibérique il y a 4 000 ans et une en Sibérie).
+En 2021, une étude conduite par les paléogénéticiens du CNRS (Centre national de la recherche scientifique) a résolu l'origine des chevaux domestiques. Auparavant, il y avait beaucoup de troupeaux génétiquement distincts, mais entre 2 000 et 2 200 ans avant notre ère, avec la domestication, la situation a totalement changé. Un profil génétique originaire de la steppe pontique (nord du Caucase) a rapidement supplanté les autres. Il se caractérise par une colonne vertébrale plus forte et un comportement plus docile. Cette domestication est liée au développement des langues indo-iraniennes (mais décorrélé de la progression des langues indo-européennes vers l'ouest).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Cheval</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cheval</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Hippologie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Anatomie et morphologie</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le cheval est un animal quadrupède. Une terminologie spécifique s'applique aux différentes parties de son corps, dont des termes habituellement réservés à l'être humain, comme « bouche », « jambe », « nez » et « pied », contrairement à tout autre animal domestique. Sa hauteur se mesure au garrot, sorte de renflement situé à la jonction de l'encolure et du dos. Par convention, le cheval a trois parties externes principales : l'avant-main, qui comprend la tête, l'encolure et les membres antérieurs ; l'arrière-main composée de la croupe, des hanches, des membres postérieurs et de la queue ; et le corps, la partie centrale. Il porte une crinière et une queue dont les poils sont appelés crins. L'étude de sa morphologie permet de décrire et d'apprécier la beauté, les défectuosités et les tares d'un animal du point de vue humain.
+L'anatomie du cheval comprend l'étude du squelette, des muscles, des tendons, du système digestif, respiratoire, reproducteur, cardiaque et nerveux. Il possède 469 muscles qui représentent environ la moitié de son poids. Toutes ses particularités anatomiques (incapacité à vomir, possibilité de bloquer ses jambes pour dormir debout en phase de sommeil léger, etc.) résultent de sa niche écologique, celle des grands herbivores dont la fuite rapide est la seule défense. Le pied du cheval est particulièrement important et doit faire l'objet de soins attentifs, justifiant l'expression populaire « pas de pied, pas de cheval ».
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Cheval</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cheval</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Hippologie</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Types et races</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les races issues de l'espèce chevaline sont nombreuses et variées. Cette grande diversité a pour origine leur adaptation à l'environnement (aptitude à jeûner, résistance aux hautes températures ou encore sûreté de pied en terrain montagneux), et surtout l'élevage sélectif puis les croisements opérés par l'humain sur le cheval domestique. Certains traits tels la rapidité, la capacité de portage ou encore celle à tracter de lourdes charges, ont été privilégiés. Les races sont généralement divisées en trois grandes catégories : les chevaux de trait destinés à la traction, les chevaux de selle destinés à être montés (y compris chevaux de sport pour le haut niveau) et les poneys. Les cobs, chevaux à deux fins pouvant être montés aussi bien qu'attelés, sont parfois classés à part. Pour le cheval comme pour bon nombre d'animaux domestiques, des listes d'ancêtres ont été établies et de nombreuses races possèdent un registre généalogique qui peut être fermé (seuls les animaux descendants d'animaux déjà enregistrés peuvent faire partie de la race) ou ouvert (le registre accepte des croisements avec d'autres races). L'inscription d'un cheval à un tel registre est soumise à des règles de signalement et de conformité au standard de race. Ces informations sont reprises par de vastes bases de données spécialisées[Note 3].
+Les races les plus connues incluent le Pur-sang, l'Arabe, le Frison, le Pure race espagnole et son voisin le Lusitanien, le Quarter Horse, le Percheron, le Fjord, le Haflinger et le poney Shetland. La liste des races de chevaux est toutefois riche de plusieurs centaines de races.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Cheval</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cheval</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Hippologie</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Types et races</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Poneys</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le poney est un cheval de petite taille, souvent avec une conformation et un tempérament particuliers. Par rapport aux chevaux, ils présentent une crinière plus épaisse, une queue et un pelage plus fournis, ainsi que des jambes proportionnellement plus courtes, un corps plus large et une ossature plus lourde, bien que certains poneys puissent ressembler à des chevaux en modèle réduit. La Fédération équestre internationale (FEI) ne prend en compte que la taille pour définir un poney. Selon ses normes, tout cheval de moins d'1,50 m au garrot (ou 1,51 m ferré) est classé « poney », afin de faciliter les compétitions officielles.
+Il y a toutefois des exceptions à cette classification, comme le Camargue et l’Islandais, dont les éleveurs et utilisateurs refusent le classement comme poney. Le cheval miniature, malgré sa taille de 70 cm en moyenne, possède les caractéristiques extérieures d'un cheval.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Cheval</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cheval</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Hippologie</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Types et races</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Marronnage</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">De nombreux chevaux sont capables de retourner à l'état sauvage et de former des troupeaux. C'est le cas des mustangs aux États-Unis et des brumbies en Australie, qui sont considérés comme invasifs et provoquent des dégâts importants sur la flore et les sols. Seul le cheval de Przewalski est resté totalement sauvage.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Cheval</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cheval</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Hippologie</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Types et races</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Hybrides</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le cheval peut s'hybrider avec d'autres équidés, mais l'animal hybride est généralement stérile. Le produit d'un entier et d'une ânesse est un « bardot », celui d'un âne et d'une jument est un « mulet » ou une « mule », celui d'une jument et d'un zèbre est nommé « zébrule ».
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Cheval</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cheval</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Hippologie</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Robes et signalisations</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La couleur des poils et des crins du cheval constituent sa robe. Très variées, elles sont un moyen d'identification de chaque animal, aussi font-elles l'objet d'une classification règlementée et d'un vocabulaire précis. Le nom des robes est basé sur la couleur des poils et des crins. Les plus courantes sont le bai, l'alezan et le gris.
+Les épis sont des zones de directions irrégulières des poils, dont le nombre et les localisations sont relevés dans le signalement des chevaux, afin de permettre leur identification. Les chevaux possèdent parfois des marques blanches sur les membres ou sur la tête, dont la taille et la forme peuvent varier. Ce sont des facteurs d'identification, des termes précis existent pour les décrire. La balzane est une marque blanche au bas des jambes, suivant sa taille et sa forme, elle porte un nom différent.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Cheval</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cheval</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Hippologie</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Éthologie et comportement</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le comportement du cheval fait l'objet de nombreuses études. Animal grégaire, le cheval vit en troupeaux d'une petite dizaine d'individus. Il passe la majeure partie de son temps à se nourrir. Il se rassure par des contacts physiques avec ses congénères, incluant des frottements et des grattages réciproques. Le cheval consacre environ 15 à 16 heures à s’alimenter, 5 à 7 h à se reposer, 1 à 2 h à se déplacer, 1 à 2 h à surveiller son environnement, et moins d'une heure aux autres activités.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Cheval</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cheval</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Hippologie</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Éthologie et comportement</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Organisation du groupe</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Un troupeau typique se compose d'un étalon (rarement deux), de trois à quatre juments — dont la plus âgée est souvent dominante — et de leurs poulains. Ces derniers sont ensuite chassés par l'étalon vers l’âge de deux ou trois ans, ou partent d'eux-mêmes pour créer leur propre harem et assurer leur descendance. Lorsqu'ils quittent leur troupeau natal, les jeunes chevaux se regroupent par 2 à 15, voire plus. En liberté, l'étalon se constitue un harem et se reproduit uniquement avec les juments de celui-ci. Si un autre étalon veut s'approprier un autre harem ou agrandir le sien, il s'ensuit une bataille entre mâles pour la domination du troupeau, se limitant généralement à des phases d'intimidations et d’investigation olfactive. Ces intimidations dégénèrent parfois en combats pouvant être violents. Ils ne sont qu'exceptionnellement mortels,. L'étalon vainqueur récupère le harem du perdant.
+Une hiérarchie de type dominant/dominé est établie, généralement en fonction de l'âge des individus, de leur tempérament, etc. La hiérarchie est souvent pyramidale : A dominant B, qui domine C, qui domine D… Des hiérarchies triangulaires existent aussi : A domine B, B domine C, mais C domine A. Cette hiérarchie se stabilise au bout de quelques mois de vie commune, et n'est en général pas ou peu remise en cause. Au sein du groupe, l'ordre et la hiérarchie se maintiennent par des manœuvres d'intimidation, notamment via un langage corporel très développé. Indépendamment des relations hiérarchiques, le cheval adulte a très souvent des relations privilégiées avec un ou deux autres congénères avec qui il entretient des relations étroites, notamment avec des séances de toilettage mutuel.
+Le cheval déteste la solitude. Son groupe lui permet d'assurer constamment une surveillance face au prédateurs. Les chevaux domestiques entretiennent eux aussi, de solides amitiés avec certains compagnons de pré ou d'écurie.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Cheval</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cheval</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Hippologie</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Éthologie et comportement</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Communication</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le cheval communique généralement par le canal visuel, grâce au langage corporel. L'étude de sa gestuelle, des mouvements d'oreilles et des attitudes de sa tête permet de déterminer son humeur. Il couche ses oreilles en arrière s'il est en colère, et les pointe vers l'avant s'il est attentif. Il emploie le hennissement lorsqu'il ne peut pas voir d'autres chevaux, le plus souvent afin de les appeler. Les chevaux recourent au hennissement dès leur plus jeune âge, c'est un moyen pour eux d'exprimer des émotions fortes.
+Les contacts entre chevaux peuvent être agressifs (morsure, coup de pied, bousculades) ou bien démontrer une affinité entre congénères, un exemple étant le toilettage mutuel. Le cheval analyse des odeurs en effectuant un flehmen, comportement particulier de flairage permettant l'activation de l'organe voméro-nasal qui a la particularité de détecter les phéromones. La possibilité d'une communication par télépathie est parfois évoquée. Cette communication intuitive permettrait au cheval de ressentir l'état d'esprit de ses congénères et des humains. Cette hypothèse n'est pas reconnue par la communauté scientifique.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Cheval</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cheval</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Hippologie</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Éthologie et comportement</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Sommeil</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Comme la plupart des grands herbivores, le cheval dort peu, de trois à cinq heures par jour, en raison de sa vulnérabilité aux prédateurs. La croyance bien connue selon laquelle il dort debout provient de sa capacité à bloquer ses jambes pour somnoler dans cette position. Il ne s'agit toutefois que de sommeil léger. Pour ses phases de sommeil profond et de sommeil paradoxal, le cheval doit s'allonger entièrement. Dans cette position, il peut rêver.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Cheval</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cheval</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Hippologie</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Reproduction et développement</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En liberté, le mâle manifeste son activité sexuelle dès l'âge d'un an à dix-huit mois, et la jument est apte à pouliner dès deux ans. En captivité, entiers et juments sont rarement autorisés à se reproduire avant l'âge de trois ans. La fécondation s'effectue de plus en plus souvent par insémination artificielle en sperme congelé. Une éjaculation d'un étalon est en moyenne de 70 ml. Cette technique permet aux éleveurs de disposer plus facilement d'un large choix de géniteurs mâles pour leurs poulinières. Pour des raisons économiques, certains éleveurs recherchent une naissance précoce au début de l'année, et parviennent à déclencher des chaleurs chez la jument en jouant par exemple sur l'intensité de l'éclairage.
+La durée de gestation est en moyenne de onze mois, soit 330 jours. La jument donne naissance à un poulain à la fois, sauf exception, généralement au printemps. Il peut marcher moins d'une heure après la naissance, et doit téter le colostrum de sa mère avant deux jours.
+Un cheval de quatre ans est généralement considéré comme adulte, bien que son squelette continue de se développer jusqu'à huit ans. Sa croissance dépend étroitement de sa taille, sa race, son sexe, et la qualité des soins qui lui sont prodigués. En fonction de la maturité, de la race, et du travail attendu, les chevaux sont d'ordinaire débourrés et montés entre deux et quatre ans. Bien que les Pur-sangs, réputés pour leur précocité, puissent être montés dès deux ans dans certains pays, les chevaux de sport équestre ne le sont pas avant trois ou quatre ans car leurs os et leurs muscles ne sont pas totalement développés. En compétition d'endurance, les chevaux ne sont pas autorisés à concourir avant cinq ans révolus. L'âge où vient la vieillesse n'est qu'une notion subjective, mais elle se situe le plus souvent entre 16 et 20 ans. Il n'existe ni race précoce ni race tardive, tous les chevaux ont la même croissance. Les os de la colonne vertébrale sont les derniers à se solidifier (vers 7-8 ans) c'est pourquoi débourrer trop tôt est dangereux pour le cheval.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Cheval</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cheval</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Hippologie</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Allures et mouvements</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Naturels</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les différentes façons dont le cheval se meut sont nommées allures. Tous les chevaux en possèdent naturellement trois. Le pas, la plus lente, est en quatre temps et correspond à une vitesse de 8 ou 9 kilomètres par heure. Le trot, allure intermédiaire et sautée à deux temps, permet habituellement d'atteindre une vitesse de 15 à 18 km/h. Le galop, la plus rapide, est une allure en trois temps, basculée et sautée, permettant d'atteindre une vitesse moyenne de 20 à 25 km/h, jusqu'à 60 km/h chez le Pur-sang. Certains chevaux sont capables d'aller l'amble, allure où les deux membres d'un même côté se déplacent simultanément.
+Le cheval saute naturellement les obstacles qui se présentent à lui, et effectue parfois des sauts sur place. Il connaît le cabrer et la ruade, mouvements qui témoignent généralement d'une volonté d'attaque ou de défense de sa part.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Cheval</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cheval</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Hippologie</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Allures et mouvements</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>Artificiels</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le dressage permet d'apprendre de nouveaux mouvements au cheval. L'apprentissage du rassembler est souvent nécessaire afin de les obtenir. Le pas espagnol est un pas lent caractérisé par une forte extension des membres antérieurs, le passage, un trot majestueux, et le piaffer, un passage sur place. Le dressage classique inclut aussi des airs relevés travaillés à partir du cabrer et de la ruade, comme la levade, la croupade, la pesade et la cabriole.
+Les allures peuvent présenter des irrégularités, telles l'aubin (mélange de trot et de galop) et le traquenard (trot désuni).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Cheval</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cheval</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Hippologie</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Sens</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le cheval possède cinq sens, mais l'existence d'un sixième sens lui permettant de prévoir le climat ou un danger est souvent évoquée. Les plus développés sont l'odorat, l'ouïe et le toucher. Sa vision est bichromatique, son angle de vue de 340 degrés, mais son acuité visuelle est moyenne à médiocre bien qu'il voie très clair durant la nuit. Son ouïe, très fine, lui permet de prévoir les tremblements de terre, de percevoir les ultrasons et de détecter les prédateurs.
+Il possède un sens développé de l'odorat lui permettant entre autres de trouver de l'eau et de détecter une femelle en chaleur à 800 m, et un organe de Jacobson pour analyser les odeurs pendant le flehmen.
+Le cheval est en principe peu attiré par le goût sucré, mais la fréquentation de l'être humain l'y a habitué. Il possède un sens du toucher très développé sur la tête et le dos, et peut faire frémir une partie de son corps afin de chasser les mouches qui s'y posent. Son pied est sensible aux variations de pression. Ses lèvres sont entourées de poils sensibles appelés vibrisses, comparables aux moustaches du chat.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Cheval</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cheval</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Hippologie</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Alimentation et digestion</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les chevaux sont des herbivores non-ruminants. Ils disposent d’un seul estomac, capable de digérer les fibres végétales qui proviennent de l’herbe et du foin, grâce à une fermentation par micro-organismes. Ce processus se déroule dans la partie du système digestif appelée cæcum, et aboutit à la décomposition de la cellulose, principal composant des fibres végétales. Les chevaux préfèrent manger de petites quantités de nourriture de façon régulière tout au long de la journée. Cela n'est pas toujours compatible avec la vie dans les écuries, ni avec les plannings des humains, qui favorisent le nourrissage deux fois par jour.
+Le système digestif du cheval est délicat. Il est incapable de régurgiter sa nourriture, sauf depuis l’œsophage. Aussi, en cas d’excès de nourriture ou d’empoisonnement, vomir n’est pas possible pour lui,. En outre, son côlon est particulièrement long et complexe, l'équilibre de la flore intestinale dans le cæcum peut être facilement bouleversé par des changements rapides d’alimentation. Ces facteurs le rendent sujet à des coliques, qui s’avèrent être la première cause de mortalité chevaline. Ils requièrent une nourriture propre et de grande qualité, fournie à intervalles réguliers, et peuvent tomber malades lorsqu’ils subissent un brusque changement de régime alimentaire. Les chevaux sont également sensibles aux moisissures et aux toxines. Pour cette raison, ils ne doivent jamais être nourris par des matières fermentables contaminées, comme la tonte de gazon.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Cheval</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cheval</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Hippologie</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Tempérament</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les chevaux étant des mammifères, ils ont toujours le sang chaud biologiquement parlant. Des termes tels que « cheval à sang chaud », « cheval à sang froid » et « proche du sang » sont utilisés pour décrire le tempérament de l'animal.
+Le races dites « à sang chaud » sont surtout d'origine orientale et incluent l'Akhal-Teke, le Barbe, l'Arabe, le Turkoman (maintenant éteint) et les Pur-sang développés à partir de ces derniers. Ils sont élevés pour leur agilité et leur vitesse, vifs, ils apprennent rapidement. Physiquement raffinés, leur peau est mince, leur silhouette longiligne, et leurs jambes longues. Ces races ont été importées en Europe depuis le Moyen-Orient et l'Afrique du Nord lorsque les éleveurs souhaitèrent insuffler des qualités de vitesse et de vivacité aux montures de la cavalerie légère.
+La plupart des chevaux de trait, puissants et musclés, sont « à sang froid ». Ils sont élevés à l'origine pour leur force, leur calme et leur patience, des qualités nécessaires pour tirer une charrue ou un lourd charriot rempli de passagers. Ils sont parfois surnommés les « doux géants ». Les races les plus connues incluent le trait belge et le Clydesdale. Certains, comme le Percheron, sont un peu plus légers et vifs. D'autres, comme le lent et puissant Shire, sont créés pour labourer les champs aux sols lourds à base d'argile. Les chevaux à sang froid regroupent aussi quelques races de poneys comme le Fjord.
+Les demi-sang (ou Warmblood) comme le Selle français, le Hunter irlandais, le Trakehner ou le Hanovrien, sont à l'origine des montures produites pour l'armée et issues du croisement de cheptels locaux à sang froid avec des chevaux à sang chaud, comme l'Arabe ou le Pur-sang, afin d'obtenir un cheval ayant davantage de raffinement que le cheval de trait, mais aussi une plus grande taille et un tempérament plus calme que les chevaux de sang. Certains poneys demi-sang ont été développés par croisement des cheptels locaux avec des chevaux de sang, par exemple le Connemara. Désormais, les termes « demi-sang » et « warmblood » tendent à désigner un type spécifique de races qui dominent les sports équestres olympiques du dressage et du saut d'obstacles depuis les années 1970. Avant cette date, le terme français (demi-sang) désignait tout croisement entre une race dite à sang froid et une race dite à sang chaud. Parfois, ce terme est utilisé pour faire référence à des races de chevaux légers autres que les Pur-sangs.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Cheval</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cheval</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Hippologie</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Intelligence et apprentissage</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Par le passé, les chevaux ont souvent été considérés comme des animaux stupides et incapables d'abstraction, soumis à leur seul instinct grégaire. Depuis le début du XXe siècle, des études (et des faits comme l'affaire Hans le Malin) ont mis en évidence leurs facultés cognitives dans la résolution d'un certain nombre de tâches quotidiennes, incluant la recherche de nourriture et la gestion de l'organisation sociale. Les chevaux sont également doués de bonnes habilités de visualisation spatiale. Ils sont capables de reconnaître les humains qui les côtoient (et de se reconnaître entre eux) à partir du simple son d'une voix ou des traits d'un visage.
+Ils font preuve d'intelligence dans la résolution de problèmes, sont doués de facultés d'apprentissage et retiennent les connaissances qu'ils ont acquises. Leurs résultats sont excellents en apprentissage simple, les chevaux sont aussi capables de résoudre des problèmes cognitifs avancés qui impliquent la catégorisation et l'apprentissage de concepts. Ils répondent bien à l'habituation, à la désensibilisation, au conditionnement pavlovien et au conditionnement opérant. Leur renforcement peut être positif comme négatif. Une étude suggère même que les chevaux sont capables de compter jusqu'à quatre.
+Les chevaux domestiques tendent à savoir résoudre des problèmes plus complexes que les chevaux sauvages, parce qu'ils vivent dans un environnement artificiel qui inhibe leur comportement instinctif tout en apprenant des tâches non-naturelles. Les chevaux sont, de manière générale, très sensibles aux habitudes. Ils répondent et s'adaptent bien mieux lorsque les mêmes routines et techniques sont utilisées de manière cohérente. Certains formateurs estiment que l'« intelligence » des chevaux est un reflet de celle de leur formateur, qui utilise efficacement les techniques de conditionnement et de renforcement positif pour former chaque animal à la manière qui correspond le mieux à ses inclinations naturelles. D'autres personnes qui travaillent régulièrement avec des chevaux notent que la personnalité peut aussi jouer un rôle pour déterminer comment un animal donné répond à des expériences diverses.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Cheval</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cheval</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Hippologie</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Santé</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">À l'état sauvage ou domestique, le cheval peut-être affecté par des parasites et des maladies telles que le tétanos, la grippe équine, la rage, la gourme, différentes affections respiratoires (emphysème…) et l'anémie infectieuse des équidés. L'une des maladies les plus « classiques » chez le cheval est la fourbure, qui peut avoir différentes causes et se traduit par de vives douleurs au niveau des pieds. La myoglobinurie, ou « maladie du lundi », et le « coup de sang » affectent les chevaux mis au travail dans de mauvaises conditions. Les coliques, des troubles du système digestif, sont particulièrement dangereuses et difficiles à soigner et à prévenir, rendant nécessaire un contrôle strict de l'alimentation du cheval domestique. Les maladies cardiaques, circulatoire, nerveuses, et les « vices d'écurie » n'affectent que les chevaux domestiques dans certaines conditions. Les déformations permanentes du corps du cheval sont appelées des tares. Toute affection de la locomotion est nommée boiterie, les causes possibles en sont nombreuses.
+Le cheval craint également certains insectes comme le taon.
+Le cheval est sensible à divers parasites, dont ceux du tube digestif, qu'il acquiert en mangeant (strongles, Parascaris equorum…). D'autres parasites causent la gale et des mycoses. Les tiques peuvent lui transmettre la piroplasmose et divers parasites dont des Borrelia, responsables de la maladie de Lyme.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Cheval</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cheval</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
           <t>Le cheval et l'humain</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'alliance de l'être humain et du cheval, animal qui a sans doute le plus marqué l’histoire et les progrès de l'humanité[123], dure plusieurs millénaires[124] durant lesquels le cheval devient l’auxiliaire favori de l'humain[125] pour le transport, la guerre et le travail. La première rencontre remonte peut-être à un million d'années, voire davantage, mais ces rapports demeurent ceux du prédateur et de la proie jusqu'à la domestication[126]. Le lien entre l'espèce humaine et le cheval est basé sur l'utilisation de la force musculaire de l'animal, au service des besoins humains[127]. Cette « exceptionnelle » association contribue significativement à l'évolution de la société, et se transforme radicalement au cours du XXe siècle dans la plupart des pays développés[126]. La place symbolique du cheval est restée, à travers un grand nombre d'expressions populaires et l'utilisation de l'unité cheval-vapeur[127].
-En 2008, d'après les données de la FAO, 58,7 millions de chevaux sont répertoriés dans le monde sur les cinq continents, ce qui correspond à un ratio de 8,7 chevaux pour 1 000 personnes. L'Amérique du Sud est le continent qui en compte le plus, l'Océanie celui qui en compte le moins[128].
-Domestication
-La date de -4500, dans l'actuel Kazakhstan[129] est la plus largement reconnue quant à la domestication du cheval. Au sein de la culture Botaï, des traces d'attelage et de collecte de lait de jument ont été retrouvées[130]. Les découvertes archéologiques suggèrent plutôt plusieurs foyers de domestication[131] Ainsi, d'autres théories la situeraient au sud de la Russie, dans la Roumanie, ou en Ukraine vers le IVe millénaire av. J.-C., pour l'hypothèse kourgane[132]. Le linguiste Winfred P. Lehmann (en) soutient que le cheval est domestiqué depuis le VIIIe millénaire av. J.-C., près de la mer Noire[133]. Une preuve irréfutable est l'utilisation de chariots funéraires dans la culture d'Andronovo, vers le IIe millénaire av. J.-C.[134].
-La domestication est aussi étudiée sur la base de la comparaison entre le matériel génétique des chevaux actuels et l'étude paléogénétique des os et des dents de chevaux trouvés au cours de fouilles archéologiques et paléontologiques. Les variations constatées au niveau du matériel génétique semblent montrer qu'un nombre très réduit d'étalons sauvages, et par contre un nombre élevé de juments sauvages, seraient à l'origine du cheval domestique[135],[136],[137],[138],[139]. En effet, il y a très peu de variabilité génétique au niveau du chromosome Y, transmis de mâle en mâle (lignée paternelle), alors que la variabilité de l'ADN mitochondrial, transmis par les mères (lignée maternelle) aux petits de tous les sexes, est très importante[135],[136],[137],[138],[139].
-Il existe aussi des variations régionales dans l'ADN mitochondrial, dues à l'inclusion a posteriori de juments sauvages parmi des hardes déjà domestiquées[137],[138],[139],[140]. Une autre conséquence de la domestication est une augmentation de la variabilité des robes[141], chez le cheval, notamment entre 5000 et 3000 ans avant notre ère[142].
-Antiquité
-En Europe, les Grecs, Romains et Byzantins utilisaient le cheval pour la guerre, les communications, le transport mais aussi les courses de chars[143]. De leur côté, les Celtes vénéraient Épona, déesse des chevaux, dont le culte nous a été transmis du fait de son adoption par les troupes équestres romaines. Au Moyen-Orient, certaines tribus Perses semblent avoir sélectionné les pur-sang arabes[144][réf. souhaitée], chevaux du désert, robustes et élégants, ils inventent aussi le polo. Lorsque les Hyksôs envahissent l'Égypte au XVIIe siècle avant notre ère, les Égyptiens n'utilisaient les chevaux que pour des tâches civiles. La cavalerie, qui fera la puissance des pharaons du Nouvel Empire, était alors du côté de l'ennemi et sera un facteur déterminant dans la défaite égyptienne. En Afrique, la cavalerie numide est une unité importante des armées carthaginoises lors des guerres puniques tandis que la cavalerie romaine était réputée médiocre.
+      <c r="F25" t="inlineStr"/>
+      <c r="G25" t="inlineStr"/>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'alliance de l'être humain et du cheval, animal qui a sans doute le plus marqué l’histoire et les progrès de l'humanité, dure plusieurs millénaires durant lesquels le cheval devient l’auxiliaire favori de l'humain pour le transport, la guerre et le travail. La première rencontre remonte peut-être à un million d'années, voire davantage, mais ces rapports demeurent ceux du prédateur et de la proie jusqu'à la domestication. Le lien entre l'espèce humaine et le cheval est basé sur l'utilisation de la force musculaire de l'animal, au service des besoins humains. Cette « exceptionnelle » association contribue significativement à l'évolution de la société, et se transforme radicalement au cours du XXe siècle dans la plupart des pays développés. La place symbolique du cheval est restée, à travers un grand nombre d'expressions populaires et l'utilisation de l'unité cheval-vapeur.
+En 2008, d'après les données de la FAO, 58,7 millions de chevaux sont répertoriés dans le monde sur les cinq continents, ce qui correspond à un ratio de 8,7 chevaux pour 1 000 personnes. L'Amérique du Sud est le continent qui en compte le plus, l'Océanie celui qui en compte le moins.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Cheval</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cheval</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Le cheval et l'humain</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Domestication</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr"/>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La date de -4500, dans l'actuel Kazakhstan est la plus largement reconnue quant à la domestication du cheval. Au sein de la culture Botaï, des traces d'attelage et de collecte de lait de jument ont été retrouvées. Les découvertes archéologiques suggèrent plutôt plusieurs foyers de domestication Ainsi, d'autres théories la situeraient au sud de la Russie, dans la Roumanie, ou en Ukraine vers le IVe millénaire av. J.-C., pour l'hypothèse kourgane. Le linguiste Winfred P. Lehmann (en) soutient que le cheval est domestiqué depuis le VIIIe millénaire av. J.-C., près de la mer Noire. Une preuve irréfutable est l'utilisation de chariots funéraires dans la culture d'Andronovo, vers le IIe millénaire av. J.-C..
+La domestication est aussi étudiée sur la base de la comparaison entre le matériel génétique des chevaux actuels et l'étude paléogénétique des os et des dents de chevaux trouvés au cours de fouilles archéologiques et paléontologiques. Les variations constatées au niveau du matériel génétique semblent montrer qu'un nombre très réduit d'étalons sauvages, et par contre un nombre élevé de juments sauvages, seraient à l'origine du cheval domestique. En effet, il y a très peu de variabilité génétique au niveau du chromosome Y, transmis de mâle en mâle (lignée paternelle), alors que la variabilité de l'ADN mitochondrial, transmis par les mères (lignée maternelle) aux petits de tous les sexes, est très importante.
+Il existe aussi des variations régionales dans l'ADN mitochondrial, dues à l'inclusion a posteriori de juments sauvages parmi des hardes déjà domestiquées. Une autre conséquence de la domestication est une augmentation de la variabilité des robes, chez le cheval, notamment entre 5000 et 3000 ans avant notre ère.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Cheval</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cheval</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Le cheval et l'humain</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Antiquité</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr"/>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En Europe, les Grecs, Romains et Byzantins utilisaient le cheval pour la guerre, les communications, le transport mais aussi les courses de chars. De leur côté, les Celtes vénéraient Épona, déesse des chevaux, dont le culte nous a été transmis du fait de son adoption par les troupes équestres romaines. Au Moyen-Orient, certaines tribus Perses semblent avoir sélectionné les pur-sang arabes[réf. souhaitée], chevaux du désert, robustes et élégants, ils inventent aussi le polo. Lorsque les Hyksôs envahissent l'Égypte au XVIIe siècle avant notre ère, les Égyptiens n'utilisaient les chevaux que pour des tâches civiles. La cavalerie, qui fera la puissance des pharaons du Nouvel Empire, était alors du côté de l'ennemi et sera un facteur déterminant dans la défaite égyptienne. En Afrique, la cavalerie numide est une unité importante des armées carthaginoises lors des guerres puniques tandis que la cavalerie romaine était réputée médiocre.
 En Asie, le plus ancien char hippomobile à nous être parvenu intact provient de la tombe de l'empereur Chinois Wu Ding, mort en 1118 av. J.-C. Le cheval était peu utilisé comme animal de trait dans l'agriculture mais les Chinois seraient à l'origine du collier d'épaule. Ils utilisèrent l'étrier au VIe siècle avant notre ère, la cavalerie formant le gros des troupes chinoises. Le cheval (馬) sert de moyen de transport et de communication (coursier). Quand le jeu de polo perse arriva à la cour de l'empereur, tout le monde s'en éprit. Les Chinois ne faisant pas d'élevage permanent des chevaux, ces derniers restaient un produit de luxe importé du Moyen-Orient.
-Au Japon, le cheval sert d'animal de combat, de coursier et au transport de marchandises, mais dans ce dernier cas il est guidé par des hommes à pied[145], ce qui limite son potentiel. Des peuples d'Asie ont développé une unité militaire originale qui est l'archer à cheval.
-Moyen Âge
-Au Moyen Âge, des types spécifiques d'animaux sont développés. Le destrier est le plus connu, à travers l'image d'un énorme animal bardé de fer associé à son chevalier en armure complète, mais la réalité historique est plus nuancée[146]. Les prestigieuses et puissantes montures de guerre portent le chevalier en armure, son armement, une large selle et son caparaçon[147],[148]. Le coursier, plus rapide, est également utilisé pour la guerre[149]. Les chevaux de prestige et de parade, dits « palefrois », sont réputés très coûteux[150], tout comme la haquenée, jument des dames fortunées. Le roussin, de moindre valeur, sert occasionnellement de monture aux chevaliers les plus pauvres ou de cheval de bât[149]. L'utilisation du cheval pour la traction est accrue par la diffusion du collier d'épaule en Europe au XIIe siècle, permettant au cheval de trait de remplacer avantageusement le bœuf dans les exploitations agricoles[151]. Les chevaux médiévaux sont nommés d'après leur lieu d'origine, par exemple « cheval espagnol », mais ce terme se référait peut-être à plusieurs races[152]. D'importants progrès technologiques, comme l'amélioration des selles, l'arrivée de l'étrier, du collier d'épaule et du fer à cheval permettent des changements capitaux dans l'équipement équestre, pour la guerre et l'agriculture. L'Église interdit l'hippophagie en 732[150].
-Au Moyen-Orient, les chevaux portent les cavaliers islamiques jusqu'en Espagne et des échanges culturels ont lieu à l'occasion des croisades et des invasions maures. Huit croisades, entre 1097 et 1300, font se rencontrer deux cultures équestres radicalement différentes, les chevaliers chargeant lourdement et essayant de désarçonner leurs adversaires, les Bédouins cherchant à tailler l'ennemi en pièce[153]. En Asie, la cavalerie est la principale force des armées mongoles et tartares.
-Renaissance et Temps modernes
-À l'arrivée de la Renaissance, l'invention de la poudre à canon entraîne la fin de la cavalerie lourde et une nouvelle sélection du cheval de guerre. Des académies d'équitation sont créées, d'abord en Italie, pour obtenir des chevaux plus maniables[147]. L'école espagnole de Vienne est construite dès 1572, et les Habsbourg fondent le haras berceau d'élevage du Lipizzan à Lipica en 1580[154].
-L'idée de mieux sélectionner les chevaux de guerre fait son chemin sous François Ier, et le 17 octobre 1665, Colbert ordonne la création des haras nationaux. Au XVIIIe siècle, la création de haras, d'écuries et d'écoles de dressage renforce la renommée des chevaux royaux, devenus plus légers et plus souples. À la veille de la Révolution française, l'État possède quinze haras nationaux et près de 750 reproducteurs. Ces haras sont supprimés par l'assemblée constituante en 1790[155].
-Les Anglais croisent des chevaux pur-sang arabes et Barbes avec leurs espèces indigènes pour créer les Pur-sangs, fameux chevaux de course. Les premiers colons espagnols réintroduisent le cheval Barbe et andalou dans les deux continents américains. L'espèce y avait disparu depuis plus de huit millénaires. En 1519, Les conquistadores d'Hernán Cortés amènent avec eux onze chevaux et six juments[156] qui deviennent les premiers ancêtres des mustangs. Les Amérindiens n'ayant jamais vu ces bêtes, les conquistadores remportent de nombreuses batailles en passant pour des divinités. Cortez aurait déclaré : « Nous devons notre victoire à Dieu et à nos chevaux ». L'animal se répand rapidement, surtout en Amérique du Nord. Durant la conquête de l'Ouest, plusieurs centaines de milliers de chevaux sauvages peuplent le continent. Au XVIIIe siècle, les Amérindiens élèvent de grandes hardes de chevaux dont le nombre total dépasse les cent cinquante mille individus[réf. nécessaire]. À partir de ces mustangs dressés émergent la plupart des races américaines. Les Indiens Nez-Percés opèrent des sélections à partir des mustangs pour obtenir l'appaloosa.
+Au Japon, le cheval sert d'animal de combat, de coursier et au transport de marchandises, mais dans ce dernier cas il est guidé par des hommes à pied, ce qui limite son potentiel. Des peuples d'Asie ont développé une unité militaire originale qui est l'archer à cheval.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Cheval</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cheval</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Le cheval et l'humain</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Moyen Âge</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr"/>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Au Moyen Âge, des types spécifiques d'animaux sont développés. Le destrier est le plus connu, à travers l'image d'un énorme animal bardé de fer associé à son chevalier en armure complète, mais la réalité historique est plus nuancée. Les prestigieuses et puissantes montures de guerre portent le chevalier en armure, son armement, une large selle et son caparaçon,. Le coursier, plus rapide, est également utilisé pour la guerre. Les chevaux de prestige et de parade, dits « palefrois », sont réputés très coûteux, tout comme la haquenée, jument des dames fortunées. Le roussin, de moindre valeur, sert occasionnellement de monture aux chevaliers les plus pauvres ou de cheval de bât. L'utilisation du cheval pour la traction est accrue par la diffusion du collier d'épaule en Europe au XIIe siècle, permettant au cheval de trait de remplacer avantageusement le bœuf dans les exploitations agricoles. Les chevaux médiévaux sont nommés d'après leur lieu d'origine, par exemple « cheval espagnol », mais ce terme se référait peut-être à plusieurs races. D'importants progrès technologiques, comme l'amélioration des selles, l'arrivée de l'étrier, du collier d'épaule et du fer à cheval permettent des changements capitaux dans l'équipement équestre, pour la guerre et l'agriculture. L'Église interdit l'hippophagie en 732.
+Au Moyen-Orient, les chevaux portent les cavaliers islamiques jusqu'en Espagne et des échanges culturels ont lieu à l'occasion des croisades et des invasions maures. Huit croisades, entre 1097 et 1300, font se rencontrer deux cultures équestres radicalement différentes, les chevaliers chargeant lourdement et essayant de désarçonner leurs adversaires, les Bédouins cherchant à tailler l'ennemi en pièce. En Asie, la cavalerie est la principale force des armées mongoles et tartares.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Cheval</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cheval</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Le cheval et l'humain</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Renaissance et Temps modernes</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr"/>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t xml:space="preserve">À l'arrivée de la Renaissance, l'invention de la poudre à canon entraîne la fin de la cavalerie lourde et une nouvelle sélection du cheval de guerre. Des académies d'équitation sont créées, d'abord en Italie, pour obtenir des chevaux plus maniables. L'école espagnole de Vienne est construite dès 1572, et les Habsbourg fondent le haras berceau d'élevage du Lipizzan à Lipica en 1580.
+L'idée de mieux sélectionner les chevaux de guerre fait son chemin sous François Ier, et le 17 octobre 1665, Colbert ordonne la création des haras nationaux. Au XVIIIe siècle, la création de haras, d'écuries et d'écoles de dressage renforce la renommée des chevaux royaux, devenus plus légers et plus souples. À la veille de la Révolution française, l'État possède quinze haras nationaux et près de 750 reproducteurs. Ces haras sont supprimés par l'assemblée constituante en 1790.
+Les Anglais croisent des chevaux pur-sang arabes et Barbes avec leurs espèces indigènes pour créer les Pur-sangs, fameux chevaux de course. Les premiers colons espagnols réintroduisent le cheval Barbe et andalou dans les deux continents américains. L'espèce y avait disparu depuis plus de huit millénaires. En 1519, Les conquistadores d'Hernán Cortés amènent avec eux onze chevaux et six juments qui deviennent les premiers ancêtres des mustangs. Les Amérindiens n'ayant jamais vu ces bêtes, les conquistadores remportent de nombreuses batailles en passant pour des divinités. Cortez aurait déclaré : « Nous devons notre victoire à Dieu et à nos chevaux ». L'animal se répand rapidement, surtout en Amérique du Nord. Durant la conquête de l'Ouest, plusieurs centaines de milliers de chevaux sauvages peuplent le continent. Au XVIIIe siècle, les Amérindiens élèvent de grandes hardes de chevaux dont le nombre total dépasse les cent cinquante mille individus[réf. nécessaire]. À partir de ces mustangs dressés émergent la plupart des races américaines. Les Indiens Nez-Percés opèrent des sélections à partir des mustangs pour obtenir l'appaloosa.
 </t>
         </is>
       </c>
